--- a/Optimization models (Pyomo)/LA GUAJIRA/resultados_modelo_transporte.xlsx
+++ b/Optimization models (Pyomo)/LA GUAJIRA/resultados_modelo_transporte.xlsx
@@ -34011,43 +34011,43 @@
     </row>
     <row r="2" spans="1:5605">
       <c r="A2">
-        <v>644177840684.856</v>
+        <v>1218978808150</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>1</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2">
         <v>0</v>
@@ -34230,40 +34230,40 @@
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2">
         <v>1</v>
       </c>
       <c r="BX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -34338,40 +34338,40 @@
         <v>0</v>
       </c>
       <c r="DF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG2">
         <v>1</v>
       </c>
       <c r="DH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR2">
         <v>0</v>
@@ -34518,37 +34518,37 @@
         <v>0</v>
       </c>
       <c r="FN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2">
         <v>1</v>
@@ -34626,76 +34626,76 @@
         <v>0</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI2">
         <v>1</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK2">
         <v>1</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV2">
         <v>0</v>
@@ -34770,40 +34770,40 @@
         <v>0</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU2">
         <v>1</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF2">
         <v>0</v>
@@ -34878,40 +34878,40 @@
         <v>0</v>
       </c>
       <c r="KD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE2">
         <v>1</v>
       </c>
       <c r="KF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG2">
         <v>0</v>
       </c>
       <c r="KH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP2">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="LE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF2">
         <v>0</v>
@@ -34986,40 +34986,40 @@
         <v>0</v>
       </c>
       <c r="LN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LO2">
         <v>1</v>
       </c>
       <c r="LP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ2">
         <v>0</v>
@@ -35094,40 +35094,40 @@
         <v>0</v>
       </c>
       <c r="MX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY2">
         <v>1</v>
       </c>
       <c r="MZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ND2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NJ2">
         <v>0</v>
@@ -35202,40 +35202,40 @@
         <v>0</v>
       </c>
       <c r="OH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OI2">
         <v>1</v>
       </c>
       <c r="OJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ON2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OT2">
         <v>0</v>
@@ -35310,40 +35310,40 @@
         <v>0</v>
       </c>
       <c r="PR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PS2">
         <v>1</v>
       </c>
       <c r="PT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QD2">
         <v>0</v>
@@ -35418,40 +35418,40 @@
         <v>0</v>
       </c>
       <c r="RB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RC2">
         <v>1</v>
       </c>
       <c r="RD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RN2">
         <v>0</v>
@@ -35526,40 +35526,40 @@
         <v>0</v>
       </c>
       <c r="SL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SM2">
         <v>1</v>
       </c>
       <c r="SN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ST2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SX2">
         <v>0</v>
@@ -35634,40 +35634,40 @@
         <v>0</v>
       </c>
       <c r="TV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TW2">
         <v>1</v>
       </c>
       <c r="TX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UH2">
         <v>0</v>
@@ -35742,40 +35742,40 @@
         <v>0</v>
       </c>
       <c r="VF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VG2">
         <v>1</v>
       </c>
       <c r="VH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VR2">
         <v>0</v>
@@ -35850,40 +35850,40 @@
         <v>0</v>
       </c>
       <c r="WP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WQ2">
         <v>1</v>
       </c>
       <c r="WR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XB2">
         <v>0</v>
@@ -35958,40 +35958,40 @@
         <v>0</v>
       </c>
       <c r="XZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YA2">
         <v>1</v>
       </c>
       <c r="YB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YL2">
         <v>0</v>
@@ -36066,40 +36066,40 @@
         <v>0</v>
       </c>
       <c r="ZJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZK2">
         <v>1</v>
       </c>
       <c r="ZL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZV2">
         <v>0</v>
@@ -36174,40 +36174,40 @@
         <v>0</v>
       </c>
       <c r="AAT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAU2">
         <v>1</v>
       </c>
       <c r="AAV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABF2">
         <v>0</v>
@@ -36282,40 +36282,40 @@
         <v>0</v>
       </c>
       <c r="ACD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACE2">
         <v>1</v>
       </c>
       <c r="ACF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACP2">
         <v>0</v>
@@ -36390,40 +36390,40 @@
         <v>0</v>
       </c>
       <c r="ADN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADO2">
         <v>1</v>
       </c>
       <c r="ADP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADZ2">
         <v>0</v>
@@ -36498,40 +36498,40 @@
         <v>0</v>
       </c>
       <c r="AEX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEY2">
         <v>1</v>
       </c>
       <c r="AEZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFJ2">
         <v>0</v>
@@ -36606,40 +36606,40 @@
         <v>0</v>
       </c>
       <c r="AGH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGI2">
         <v>1</v>
       </c>
       <c r="AGJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGT2">
         <v>0</v>
@@ -36714,40 +36714,40 @@
         <v>0</v>
       </c>
       <c r="AHR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHS2">
         <v>1</v>
       </c>
       <c r="AHT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AIA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AIB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AIC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AID2">
         <v>0</v>
@@ -36822,40 +36822,40 @@
         <v>0</v>
       </c>
       <c r="AJB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJC2">
         <v>1</v>
       </c>
       <c r="AJD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJN2">
         <v>0</v>
@@ -36930,40 +36930,40 @@
         <v>0</v>
       </c>
       <c r="AKL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKM2">
         <v>1</v>
       </c>
       <c r="AKN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AKX2">
         <v>0</v>
@@ -37038,40 +37038,40 @@
         <v>0</v>
       </c>
       <c r="ALV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ALW2">
         <v>1</v>
       </c>
       <c r="ALX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ALY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ALZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AME2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMH2">
         <v>0</v>
@@ -37146,40 +37146,40 @@
         <v>0</v>
       </c>
       <c r="ANF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANG2">
         <v>1</v>
       </c>
       <c r="ANH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANR2">
         <v>0</v>
@@ -37254,40 +37254,40 @@
         <v>0</v>
       </c>
       <c r="AOP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AOQ2">
         <v>1</v>
       </c>
       <c r="AOR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AOS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AOT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AOU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AOV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AOW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AOX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AOY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AOZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="APA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="APB2">
         <v>0</v>
@@ -37362,40 +37362,40 @@
         <v>0</v>
       </c>
       <c r="APZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQA2">
         <v>1</v>
       </c>
       <c r="AQB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQL2">
         <v>0</v>
@@ -37470,40 +37470,40 @@
         <v>0</v>
       </c>
       <c r="ARJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARK2">
         <v>1</v>
       </c>
       <c r="ARL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ART2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ARV2">
         <v>0</v>
@@ -37578,40 +37578,40 @@
         <v>0</v>
       </c>
       <c r="AST2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ASU2">
         <v>1</v>
       </c>
       <c r="ASV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ASW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ASX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ASY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ASZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ATA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ATB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ATC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ATD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ATE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ATF2">
         <v>0</v>
@@ -37686,40 +37686,40 @@
         <v>0</v>
       </c>
       <c r="AUD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUE2">
         <v>1</v>
       </c>
       <c r="AUF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AUP2">
         <v>0</v>
@@ -37794,40 +37794,40 @@
         <v>0</v>
       </c>
       <c r="AVN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVO2">
         <v>1</v>
       </c>
       <c r="AVP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AVZ2">
         <v>0</v>
@@ -37902,40 +37902,40 @@
         <v>0</v>
       </c>
       <c r="AWX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AWY2">
         <v>1</v>
       </c>
       <c r="AWZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AXJ2">
         <v>0</v>
@@ -38010,40 +38010,40 @@
         <v>0</v>
       </c>
       <c r="AYH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYI2">
         <v>1</v>
       </c>
       <c r="AYJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AYT2">
         <v>0</v>
@@ -38118,40 +38118,40 @@
         <v>0</v>
       </c>
       <c r="AZR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZS2">
         <v>1</v>
       </c>
       <c r="AZT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BAA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BAB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BAC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BAD2">
         <v>0</v>
@@ -38226,40 +38226,40 @@
         <v>0</v>
       </c>
       <c r="BBB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBC2">
         <v>1</v>
       </c>
       <c r="BBD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BBN2">
         <v>0</v>
@@ -38406,76 +38406,76 @@
         <v>0</v>
       </c>
       <c r="BDJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDU2">
         <v>1</v>
       </c>
       <c r="BDV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDW2">
         <v>1</v>
       </c>
       <c r="BDX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BDZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BEA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BEB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BEC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BED2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BEE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BEF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BEG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BEH2">
         <v>0</v>
@@ -38550,40 +38550,40 @@
         <v>0</v>
       </c>
       <c r="BFF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFG2">
         <v>1</v>
       </c>
       <c r="BFH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BFR2">
         <v>0</v>
@@ -38658,40 +38658,40 @@
         <v>0</v>
       </c>
       <c r="BGP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BGQ2">
         <v>1</v>
       </c>
       <c r="BGR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BGS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BGT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BGU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BGV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BGW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BGX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BGY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BGZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BHA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BHB2">
         <v>0</v>
@@ -38838,76 +38838,76 @@
         <v>0</v>
       </c>
       <c r="BIX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BIY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BIZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJI2">
         <v>1</v>
       </c>
       <c r="BJJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJK2">
         <v>1</v>
       </c>
       <c r="BJL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJV2">
         <v>0</v>
@@ -38982,40 +38982,40 @@
         <v>0</v>
       </c>
       <c r="BKT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BKU2">
         <v>1</v>
       </c>
       <c r="BKV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BKW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BKX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BKY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BKZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BLA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BLB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BLC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BLD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BLE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BLF2">
         <v>0</v>
@@ -39090,40 +39090,40 @@
         <v>0</v>
       </c>
       <c r="BMD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BME2">
         <v>1</v>
       </c>
       <c r="BMF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BMG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BMH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BMI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BMJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BMK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BML2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BMM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BMN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BMO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BMP2">
         <v>0</v>
@@ -39270,76 +39270,76 @@
         <v>0</v>
       </c>
       <c r="BOL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BON2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOW2">
         <v>1</v>
       </c>
       <c r="BOX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BOY2">
         <v>1</v>
       </c>
       <c r="BOZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BPJ2">
         <v>0</v>
@@ -39414,40 +39414,40 @@
         <v>0</v>
       </c>
       <c r="BQH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQI2">
         <v>1</v>
       </c>
       <c r="BQJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQT2">
         <v>0</v>
@@ -40062,40 +40062,40 @@
         <v>0</v>
       </c>
       <c r="BYP2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BYQ2">
         <v>75</v>
       </c>
       <c r="BYR2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BYS2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BYT2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BYU2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BYV2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BYW2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BYX2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BYY2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BYZ2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BZA2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BZB2">
         <v>0</v>
@@ -40386,40 +40386,40 @@
         <v>0</v>
       </c>
       <c r="CCT2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CCU2">
         <v>480</v>
       </c>
       <c r="CCV2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CCW2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CCX2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CCY2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CCZ2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CDA2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CDB2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CDC2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CDD2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CDE2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="CDF2">
         <v>0</v>
@@ -40602,40 +40602,40 @@
         <v>0</v>
       </c>
       <c r="CFN2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFO2">
         <v>450</v>
       </c>
       <c r="CFP2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFQ2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFR2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFS2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFT2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFU2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFV2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFW2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFX2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFY2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CFZ2">
         <v>0</v>
@@ -41142,40 +41142,40 @@
         <v>0</v>
       </c>
       <c r="CML2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMM2">
         <v>450</v>
       </c>
       <c r="CMN2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMO2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMP2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMQ2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMR2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMS2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMT2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMU2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMV2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMW2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CMX2">
         <v>0</v>
@@ -41358,40 +41358,40 @@
         <v>0</v>
       </c>
       <c r="CPF2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPG2">
         <v>210</v>
       </c>
       <c r="CPH2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPI2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPJ2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPK2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPL2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPM2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPN2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPO2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPP2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPQ2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="CPR2">
         <v>0</v>
@@ -41466,40 +41466,40 @@
         <v>0</v>
       </c>
       <c r="CQP2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CQQ2">
         <v>9600</v>
       </c>
       <c r="CQR2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CQS2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CQT2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CQU2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CQV2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CQW2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CQX2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CQY2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CQZ2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CRA2">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="CRB2">
         <v>0</v>
@@ -41574,40 +41574,40 @@
         <v>0</v>
       </c>
       <c r="CRZ2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSA2">
         <v>450</v>
       </c>
       <c r="CSB2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSC2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSD2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSE2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSF2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSG2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSH2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSI2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSJ2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSK2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CSL2">
         <v>0</v>
@@ -42114,40 +42114,40 @@
         <v>0</v>
       </c>
       <c r="CYX2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CYY2">
         <v>1050</v>
       </c>
       <c r="CYZ2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZA2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZB2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZC2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZD2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZE2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZF2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZG2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZH2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZI2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="CZJ2">
         <v>0</v>
@@ -42546,40 +42546,40 @@
         <v>0</v>
       </c>
       <c r="DEL2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DEM2">
         <v>300</v>
       </c>
       <c r="DEN2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DEO2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DEP2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DEQ2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DER2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DES2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DET2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DEU2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DEV2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DEW2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DEX2">
         <v>0</v>
@@ -42870,40 +42870,40 @@
         <v>0</v>
       </c>
       <c r="DIP2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DIQ2">
         <v>1800</v>
       </c>
       <c r="DIR2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DIS2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DIT2">
-        <v>1800</v>
+        <v>1.99840144432528E-13</v>
       </c>
       <c r="DIU2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DIV2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DIW2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DIX2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DIY2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DIZ2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DJA2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="DJB2">
         <v>0</v>
@@ -43086,40 +43086,40 @@
         <v>0</v>
       </c>
       <c r="DLJ2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLK2">
         <v>90</v>
       </c>
       <c r="DLL2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLM2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLN2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLO2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLP2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLQ2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLR2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLS2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLT2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLU2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DLV2">
         <v>0</v>
@@ -43302,40 +43302,40 @@
         <v>0</v>
       </c>
       <c r="DOD2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOE2">
         <v>300</v>
       </c>
       <c r="DOF2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOG2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOH2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOI2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOJ2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOK2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOL2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOM2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DON2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOO2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="DOP2">
         <v>0</v>
@@ -43626,40 +43626,40 @@
         <v>0</v>
       </c>
       <c r="DSH2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSI2">
         <v>60</v>
       </c>
       <c r="DSJ2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSK2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSL2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSM2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSN2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSO2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSP2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSQ2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSR2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DSS2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="DST2">
         <v>0</v>
@@ -43842,40 +43842,40 @@
         <v>0</v>
       </c>
       <c r="DVB2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVC2">
         <v>2400</v>
       </c>
       <c r="DVD2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVE2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVF2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVG2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVH2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVI2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVJ2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVK2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVL2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVM2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="DVN2">
         <v>0</v>
@@ -43950,40 +43950,40 @@
         <v>0</v>
       </c>
       <c r="DWL2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWM2">
         <v>120</v>
       </c>
       <c r="DWN2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWO2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWP2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWQ2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWR2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWS2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWT2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWU2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWV2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWW2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DWX2">
         <v>0</v>
@@ -44058,40 +44058,40 @@
         <v>0</v>
       </c>
       <c r="DXV2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DXW2">
         <v>90</v>
       </c>
       <c r="DXX2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DXY2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DXZ2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DYA2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DYB2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DYC2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DYD2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DYE2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DYF2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DYG2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="DYH2">
         <v>0</v>
@@ -44274,40 +44274,40 @@
         <v>0</v>
       </c>
       <c r="EAP2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EAQ2">
         <v>150</v>
       </c>
       <c r="EAR2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EAS2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EAT2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EAU2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EAV2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EAW2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EAX2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EAY2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EAZ2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EBA2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EBB2">
         <v>0</v>
@@ -44382,40 +44382,40 @@
         <v>0</v>
       </c>
       <c r="EBZ2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECA2">
         <v>120</v>
       </c>
       <c r="ECB2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECC2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECD2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECE2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECF2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECG2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECH2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECI2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECJ2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECK2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="ECL2">
         <v>0</v>
@@ -44490,40 +44490,40 @@
         <v>0</v>
       </c>
       <c r="EDJ2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDK2">
         <v>60</v>
       </c>
       <c r="EDL2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDM2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDN2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDO2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDP2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDQ2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDR2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDS2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDT2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDU2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="EDV2">
         <v>0</v>
@@ -44814,40 +44814,40 @@
         <v>0</v>
       </c>
       <c r="EHN2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHO2">
         <v>120</v>
       </c>
       <c r="EHP2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHQ2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHR2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHS2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHT2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHU2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHV2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHW2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHX2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHY2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="EHZ2">
         <v>0</v>
@@ -44925,7 +44925,7 @@
         <v>0</v>
       </c>
       <c r="EIY2">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="EIZ2">
         <v>0</v>
@@ -45033,13 +45033,13 @@
         <v>0</v>
       </c>
       <c r="EKI2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="EKJ2">
         <v>0</v>
       </c>
       <c r="EKK2">
-        <v>1723.904</v>
+        <v>0</v>
       </c>
       <c r="EKL2">
         <v>0</v>
@@ -45054,16 +45054,16 @@
         <v>0</v>
       </c>
       <c r="EKP2">
-        <v>1810.48</v>
+        <v>0</v>
       </c>
       <c r="EKQ2">
         <v>0</v>
       </c>
       <c r="EKR2">
-        <v>468.688000000001</v>
+        <v>0</v>
       </c>
       <c r="EKS2">
-        <v>1206.48</v>
+        <v>0</v>
       </c>
       <c r="EKT2">
         <v>0</v>
@@ -45138,40 +45138,40 @@
         <v>0</v>
       </c>
       <c r="ELR2">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="ELS2">
-        <v>1435.2</v>
+        <v>3750</v>
       </c>
       <c r="ELT2">
-        <v>3028.16</v>
+        <v>0</v>
       </c>
       <c r="ELU2">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="ELV2">
-        <v>2525.12</v>
+        <v>0</v>
       </c>
       <c r="ELW2">
-        <v>2139.456</v>
+        <v>0</v>
       </c>
       <c r="ELX2">
-        <v>2105.92</v>
+        <v>0</v>
       </c>
       <c r="ELY2">
-        <v>3631.808</v>
+        <v>0</v>
       </c>
       <c r="ELZ2">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="EMA2">
-        <v>3497.664</v>
+        <v>0</v>
       </c>
       <c r="EMB2">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="EMC2">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="EMD2">
         <v>0</v>
@@ -45570,40 +45570,40 @@
         <v>0</v>
       </c>
       <c r="ERF2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="ERG2">
         <v>2700</v>
       </c>
       <c r="ERH2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="ERI2">
         <v>0</v>
       </c>
       <c r="ERJ2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="ERK2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="ERL2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="ERM2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="ERN2">
         <v>0</v>
       </c>
       <c r="ERO2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="ERP2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="ERQ2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="ERR2">
         <v>0</v>
@@ -45678,40 +45678,40 @@
         <v>0</v>
       </c>
       <c r="ESP2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ESQ2">
         <v>450</v>
       </c>
       <c r="ESR2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ESS2">
         <v>0</v>
       </c>
       <c r="EST2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ESU2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ESV2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ESW2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ESX2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ESY2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ESZ2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ETA2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="ETB2">
         <v>0</v>
@@ -45786,40 +45786,40 @@
         <v>0</v>
       </c>
       <c r="ETZ2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUA2">
         <v>450</v>
       </c>
       <c r="EUB2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUC2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUD2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUE2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUF2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUG2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUH2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUI2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUJ2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUK2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="EUL2">
         <v>0</v>
@@ -45894,40 +45894,40 @@
         <v>0</v>
       </c>
       <c r="EVJ2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVK2">
         <v>2100</v>
       </c>
       <c r="EVL2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVM2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVN2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVO2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVP2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVQ2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVR2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVS2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVT2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVU2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="EVV2">
         <v>0</v>
@@ -46002,40 +46002,40 @@
         <v>0</v>
       </c>
       <c r="EWT2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EWU2">
         <v>630</v>
       </c>
       <c r="EWV2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EWW2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EWX2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EWY2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EWZ2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EXA2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EXB2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EXC2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EXD2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EXE2">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="EXF2">
         <v>0</v>
@@ -46110,40 +46110,40 @@
         <v>0</v>
       </c>
       <c r="EYD2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYE2">
         <v>150</v>
       </c>
       <c r="EYF2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYG2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYH2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYI2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYJ2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYK2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYL2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYM2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYN2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYO2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="EYP2">
         <v>0</v>
@@ -46218,40 +46218,40 @@
         <v>0</v>
       </c>
       <c r="EZN2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZO2">
         <v>1500</v>
       </c>
       <c r="EZP2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZQ2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZR2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZS2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZT2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZU2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZV2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZW2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZX2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZY2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="EZZ2">
         <v>0</v>
@@ -46326,40 +46326,40 @@
         <v>0</v>
       </c>
       <c r="FAX2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FAY2">
         <v>360</v>
       </c>
       <c r="FAZ2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBA2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBB2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBC2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBD2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBE2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBF2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBG2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBH2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBI2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FBJ2">
         <v>0</v>
@@ -46434,40 +46434,40 @@
         <v>0</v>
       </c>
       <c r="FCH2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCI2">
         <v>450</v>
       </c>
       <c r="FCJ2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCK2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCL2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCM2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCN2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCO2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCP2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCQ2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCR2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCS2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="FCT2">
         <v>0</v>
@@ -46650,40 +46650,40 @@
         <v>0</v>
       </c>
       <c r="FFB2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFC2">
         <v>270</v>
       </c>
       <c r="FFD2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFE2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFF2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFG2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFH2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFI2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFJ2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFK2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFL2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFM2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="FFN2">
         <v>0</v>
@@ -46974,40 +46974,40 @@
         <v>0</v>
       </c>
       <c r="FJF2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJG2">
         <v>750</v>
       </c>
       <c r="FJH2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJI2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJJ2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJK2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJL2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJM2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJN2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJO2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJP2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJQ2">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="FJR2">
         <v>0</v>
@@ -47082,40 +47082,40 @@
         <v>0</v>
       </c>
       <c r="FKP2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FKQ2">
         <v>5100</v>
       </c>
       <c r="FKR2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FKS2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FKT2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FKU2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FKV2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FKW2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FKX2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FKY2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FKZ2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FLA2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="FLB2">
         <v>0</v>
@@ -47190,40 +47190,40 @@
         <v>0</v>
       </c>
       <c r="FLZ2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FMA2">
         <v>360</v>
       </c>
       <c r="FMB2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FMC2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FMD2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FME2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FMF2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FMG2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FMH2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FMI2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FMJ2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FMK2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="FML2">
         <v>0</v>
@@ -47298,40 +47298,40 @@
         <v>0</v>
       </c>
       <c r="FNJ2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNK2">
         <v>2250</v>
       </c>
       <c r="FNL2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNM2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNN2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNO2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNP2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNQ2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNR2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNS2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNT2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNU2">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="FNV2">
         <v>0</v>
@@ -47406,40 +47406,40 @@
         <v>0</v>
       </c>
       <c r="FOT2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FOU2">
         <v>2400</v>
       </c>
       <c r="FOV2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FOW2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FOX2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FOY2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FOZ2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FPA2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FPB2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FPC2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FPD2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FPE2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="FPF2">
         <v>0</v>
@@ -47514,40 +47514,40 @@
         <v>0</v>
       </c>
       <c r="FQD2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQE2">
         <v>3600</v>
       </c>
       <c r="FQF2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQG2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQH2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQI2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQJ2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQK2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQL2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQM2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQN2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQO2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="FQP2">
         <v>0</v>
@@ -47622,40 +47622,40 @@
         <v>0</v>
       </c>
       <c r="FRN2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRO2">
         <v>300</v>
       </c>
       <c r="FRP2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRQ2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRR2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRS2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRT2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRU2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRV2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRW2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRX2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRY2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="FRZ2">
         <v>0</v>
@@ -47730,40 +47730,40 @@
         <v>0</v>
       </c>
       <c r="FSX2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FSY2">
         <v>120</v>
       </c>
       <c r="FSZ2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTA2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTB2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTC2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTD2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTE2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTF2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTG2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTH2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTI2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="FTJ2">
         <v>0</v>
@@ -47838,40 +47838,40 @@
         <v>0</v>
       </c>
       <c r="FUH2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUI2">
         <v>6000</v>
       </c>
       <c r="FUJ2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUK2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUL2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUM2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUN2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUO2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUP2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUQ2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUR2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUS2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="FUT2">
         <v>0</v>
@@ -47946,40 +47946,40 @@
         <v>0</v>
       </c>
       <c r="FVR2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FVS2">
         <v>600</v>
       </c>
       <c r="FVT2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FVU2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FVV2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FVW2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FVX2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FVY2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FVZ2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FWA2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FWB2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FWC2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="FWD2">
         <v>0</v>
@@ -48054,40 +48054,40 @@
         <v>0</v>
       </c>
       <c r="FXB2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXC2">
         <v>240</v>
       </c>
       <c r="FXD2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXE2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXF2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXG2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXH2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXI2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXJ2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXK2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXL2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXM2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FXN2">
         <v>0</v>
@@ -48162,40 +48162,40 @@
         <v>0</v>
       </c>
       <c r="FYL2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYM2">
         <v>240</v>
       </c>
       <c r="FYN2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYO2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYP2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYQ2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYR2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYS2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYT2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYU2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYV2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYW2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="FYX2">
         <v>0</v>
@@ -48378,40 +48378,40 @@
         <v>0</v>
       </c>
       <c r="GBF2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBG2">
         <v>300</v>
       </c>
       <c r="GBH2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBI2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBJ2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBK2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBL2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBM2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBN2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBO2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBP2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBQ2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GBR2">
         <v>0</v>
@@ -48594,40 +48594,40 @@
         <v>0</v>
       </c>
       <c r="GDZ2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="GEA2">
         <v>480</v>
       </c>
       <c r="GEB2">
-        <v>479.999999999994</v>
+        <v>0</v>
       </c>
       <c r="GEC2">
-        <v>479.999999999994</v>
+        <v>0</v>
       </c>
       <c r="GED2">
-        <v>479.999999999997</v>
+        <v>0</v>
       </c>
       <c r="GEE2">
-        <v>479.999999999997</v>
+        <v>0</v>
       </c>
       <c r="GEF2">
-        <v>479.999999999997</v>
+        <v>0</v>
       </c>
       <c r="GEG2">
-        <v>479.999999999994</v>
+        <v>0</v>
       </c>
       <c r="GEH2">
-        <v>479.999999999996</v>
+        <v>0</v>
       </c>
       <c r="GEI2">
-        <v>479.999999999997</v>
+        <v>0</v>
       </c>
       <c r="GEJ2">
-        <v>479.999999999997</v>
+        <v>0</v>
       </c>
       <c r="GEK2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="GEL2">
         <v>0</v>
@@ -48810,40 +48810,40 @@
         <v>0</v>
       </c>
       <c r="GGT2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GGU2">
         <v>300</v>
       </c>
       <c r="GGV2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GGW2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GGX2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GGY2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GGZ2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GHA2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GHB2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GHC2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GHD2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GHE2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="GHF2">
         <v>0</v>
@@ -48918,40 +48918,40 @@
         <v>0</v>
       </c>
       <c r="GID2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIE2">
         <v>210</v>
       </c>
       <c r="GIF2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIG2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIH2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GII2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIJ2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIK2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIL2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIM2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIN2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIO2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="GIP2">
         <v>0</v>
@@ -49674,40 +49674,40 @@
         <v>0</v>
       </c>
       <c r="GRV2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GRW2">
         <v>150</v>
       </c>
       <c r="GRX2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GRY2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GRZ2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GSA2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GSB2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GSC2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GSD2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GSE2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GSF2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GSG2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="GSH2">
         <v>0</v>
@@ -50106,40 +50106,40 @@
         <v>0</v>
       </c>
       <c r="GXJ2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXK2">
         <v>60</v>
       </c>
       <c r="GXL2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXM2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXN2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXO2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXP2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXQ2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXR2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXS2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXT2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXU2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GXV2">
         <v>0</v>
@@ -50322,40 +50322,40 @@
         <v>0</v>
       </c>
       <c r="HAD2">
-        <v>18375</v>
+        <v>-0</v>
       </c>
       <c r="HAE2">
         <v>18375</v>
       </c>
       <c r="HAF2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAG2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAH2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAI2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAJ2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAK2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAL2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAM2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAN2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAO2">
-        <v>18375</v>
+        <v>0</v>
       </c>
       <c r="HAP2">
         <v>-0</v>
@@ -50430,40 +50430,40 @@
         <v>0</v>
       </c>
       <c r="HBN2">
-        <v>33536</v>
+        <v>0</v>
       </c>
       <c r="HBO2">
         <v>33955.2</v>
       </c>
       <c r="HBP2">
-        <v>35548.16</v>
+        <v>5854.8</v>
       </c>
       <c r="HBQ2">
-        <v>34843.904</v>
+        <v>0</v>
       </c>
       <c r="HBR2">
-        <v>35045.12</v>
+        <v>0</v>
       </c>
       <c r="HBS2">
-        <v>34659.456</v>
+        <v>0</v>
       </c>
       <c r="HBT2">
-        <v>34625.92</v>
+        <v>0</v>
       </c>
       <c r="HBU2">
-        <v>36151.808</v>
+        <v>0</v>
       </c>
       <c r="HBV2">
-        <v>35380.48</v>
+        <v>0</v>
       </c>
       <c r="HBW2">
-        <v>36017.664</v>
+        <v>0</v>
       </c>
       <c r="HBX2">
-        <v>36738.688</v>
+        <v>0</v>
       </c>
       <c r="HBY2">
-        <v>37476.48</v>
+        <v>0</v>
       </c>
       <c r="HBZ2">
         <v>0</v>
@@ -50649,7 +50649,7 @@
         <v>0</v>
       </c>
       <c r="HEI2">
-        <v>0</v>
+        <v>5854.8</v>
       </c>
       <c r="HEJ2">
         <v>0</v>
@@ -50754,76 +50754,76 @@
         <v>-0</v>
       </c>
       <c r="HFR2">
-        <v>49024</v>
+        <v>67399</v>
       </c>
       <c r="HFS2">
         <v>49866.4875</v>
       </c>
       <c r="HFT2">
-        <v>53067.94</v>
+        <v>71442.94</v>
       </c>
       <c r="HFU2">
-        <v>51652.561</v>
+        <v>70027.561</v>
       </c>
       <c r="HFV2">
-        <v>52056.955</v>
+        <v>70431.955</v>
       </c>
       <c r="HFW2">
-        <v>51281.8665</v>
+        <v>69656.8665</v>
       </c>
       <c r="HFX2">
-        <v>51214.4675</v>
+        <v>69589.4675</v>
       </c>
       <c r="HFY2">
-        <v>54281.122</v>
+        <v>72656.122</v>
       </c>
       <c r="HFZ2">
-        <v>52730.945</v>
+        <v>71105.94500000001</v>
       </c>
       <c r="HGA2">
-        <v>54011.526</v>
+        <v>72386.526</v>
       </c>
       <c r="HGB2">
-        <v>55460.6045</v>
+        <v>73835.6045</v>
       </c>
       <c r="HGC2">
-        <v>56943.3825</v>
+        <v>75318.38250000001</v>
       </c>
       <c r="HGD2">
-        <v>0</v>
+        <v>33536</v>
       </c>
       <c r="HGE2">
         <v>0</v>
       </c>
       <c r="HGF2">
-        <v>7.275957614183431E-12</v>
+        <v>29693.36</v>
       </c>
       <c r="HGG2">
-        <v>7.275957614183431E-12</v>
+        <v>34843.904</v>
       </c>
       <c r="HGH2">
-        <v>0</v>
+        <v>35045.12</v>
       </c>
       <c r="HGI2">
-        <v>0</v>
+        <v>34659.456</v>
       </c>
       <c r="HGJ2">
-        <v>0</v>
+        <v>34625.92</v>
       </c>
       <c r="HGK2">
-        <v>7.275957614183431E-12</v>
+        <v>36151.808</v>
       </c>
       <c r="HGL2">
-        <v>7.275957614183431E-12</v>
+        <v>35380.48</v>
       </c>
       <c r="HGM2">
-        <v>0</v>
+        <v>36017.664</v>
       </c>
       <c r="HGN2">
-        <v>0</v>
+        <v>36738.688</v>
       </c>
       <c r="HGO2">
-        <v>0</v>
+        <v>37476.48</v>
       </c>
     </row>
   </sheetData>
